--- a/Data/Commodore 64 Breadbin/250425/Data C64 Breadbin 250425.xlsx
+++ b/Data/Commodore 64 Breadbin/250425/Data C64 Breadbin 250425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64 Breadbin\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FF66AC-0903-46C3-B45A-64C4C33725F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BCD354-FE02-4218-822C-E87AED3E5AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="349">
   <si>
     <t>Name</t>
   </si>
@@ -579,9 +579,6 @@
     <t>8 pin DIN</t>
   </si>
   <si>
-    <t>44 pin</t>
-  </si>
-  <si>
     <t>7 pin DIN</t>
   </si>
   <si>
@@ -594,51 +591,13 @@
     <t>CIA 1</t>
   </si>
   <si>
-    <t>Memory locations:
-$DC00-$DCFF</t>
-  </si>
-  <si>
     <t>CIA 2</t>
   </si>
   <si>
-    <t>Memory locations:
-$DD00-$DDFF</t>
-  </si>
-  <si>
-    <t>MOS 901226-01
-Memory locations:
-$A000-$BFFF</t>
-  </si>
-  <si>
-    <t>Memory locations:
-$E000-$FFFF</t>
-  </si>
-  <si>
-    <t>4KByte x 8-bit</t>
-  </si>
-  <si>
-    <t>The socket is not pin-compatible with the 2732 EPROM, so to use an EPROM you need to create an adapter.
-Memory locations:
-$D000-$DFFF</t>
-  </si>
-  <si>
-    <t>1KByte x 4-bit</t>
-  </si>
-  <si>
-    <t>Memory locatons:
-$D800-$DBFF</t>
-  </si>
-  <si>
     <t>Compatible part-number: 8500 (HMOS version)</t>
   </si>
   <si>
     <t>HEX inverter buffer</t>
-  </si>
-  <si>
-    <t>DRAM</t>
-  </si>
-  <si>
-    <t>64KByte x 1-bit</t>
   </si>
   <si>
     <t>D1</t>
@@ -673,23 +632,6 @@
   <si>
     <t>PLA (Programmable Logic Array) is responsible for bank switching and dealing with chip select signals.
 Is this a 8700 PAL?</t>
-  </si>
-  <si>
-    <t>Memory locations:
-$D400-$D7FF</t>
-  </si>
-  <si>
-    <t>6569 (PAL)
-6567 (NTSC)
-Pin meassurements:
-17: PAL = 0.98 MHz
-17: NTSC = 1.02 MHz
-21: PAL = 17.734472 MHz
-21: NTSC = 14.31818 MHz
-22: PAL = 7.88 MHz
-22: NTSC = 8.18 MHz
-Memory locations:
-$D000-$D3FF</t>
   </si>
   <si>
     <t>Dual timer</t>
@@ -1111,6 +1053,88 @@
     <t>Ray Carlsen; CBM</t>
   </si>
   <si>
+    <t>Data\Commodore 64 Breadbin\250425\Board-Layout-250425.jpg</t>
+  </si>
+  <si>
+    <t>Board layout</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>250V/1.5A</t>
+  </si>
+  <si>
+    <t>44 pin edge</t>
+  </si>
+  <si>
+    <t>PET/VIC-20/C64 Port Pinouts</t>
+  </si>
+  <si>
+    <t>Data\Commodore shared files\Board local files\commodore_pet_vic-20_c64_port_pinouts.pdf</t>
+  </si>
+  <si>
+    <t>Memory locaton:
+$D800-$DBFF</t>
+  </si>
+  <si>
+    <t>The socket is not pin-compatible with the 2732 EPROM, so to use an EPROM you need to create an adapter.
+Memory location:
+$D000-$DFFF</t>
+  </si>
+  <si>
+    <t>Memory location:
+$DC00-$DCFF</t>
+  </si>
+  <si>
+    <t>Memory location:
+$DD00-$DDFF</t>
+  </si>
+  <si>
+    <t>MOS 901226-01
+Memory location:
+$A000-$BFFF</t>
+  </si>
+  <si>
+    <t>Memory location:
+$E000-$FFFF</t>
+  </si>
+  <si>
+    <t>Memory location:
+$D400-$D7FF</t>
+  </si>
+  <si>
+    <t>6569 (PAL)
+6567 (NTSC)
+Pin meassurements:
+17: PAL = 0.98 MHz
+17: NTSC = 1.02 MHz
+21: PAL = 17.734472 MHz
+21: NTSC = 14.31818 MHz
+22: PAL = 7.88 MHz
+22: NTSC = 8.18 MHz
+Memory location:
+$D000-$D3FF</t>
+  </si>
+  <si>
+    <t>1024 x 4-bit</t>
+  </si>
+  <si>
+    <t>4096 x 8-bit</t>
+  </si>
+  <si>
+    <t>8192 x 8-bit</t>
+  </si>
+  <si>
+    <t>Dynamic RAM</t>
+  </si>
+  <si>
+    <t>65536 x 1-bit</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1123,23 +1147,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-April-14</t>
+      <t>2025-April-20</t>
     </r>
-  </si>
-  <si>
-    <t>Data\Commodore 64 Breadbin\250425\Board-Layout-250425.jpg</t>
-  </si>
-  <si>
-    <t>Board layout</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Fuse</t>
-  </si>
-  <si>
-    <t>250V/1.5A</t>
   </si>
 </sst>
 </file>
@@ -1689,17 +1698,17 @@
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1712,7 +1721,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="28" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1723,7 +1732,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="32" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1784,7 +1793,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
@@ -1807,7 +1816,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
@@ -1828,10 +1837,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C12" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>9</v>
@@ -1956,12 +1965,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="13" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1969,12 +1978,12 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="28" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="32" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2015,10 +2024,10 @@
         <v>151</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>109</v>
@@ -2029,10 +2038,10 @@
         <v>123</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>109</v>
@@ -2043,10 +2052,10 @@
         <v>124</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>109</v>
@@ -2057,10 +2066,10 @@
         <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>109</v>
@@ -2071,10 +2080,10 @@
         <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>109</v>
@@ -2085,10 +2094,10 @@
         <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>109</v>
@@ -2099,10 +2108,10 @@
         <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>109</v>
@@ -2113,10 +2122,10 @@
         <v>118</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>109</v>
@@ -2127,10 +2136,10 @@
         <v>98</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>109</v>
@@ -2141,10 +2150,10 @@
         <v>86</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>109</v>
@@ -2155,10 +2164,10 @@
         <v>101</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>109</v>
@@ -2172,7 +2181,7 @@
         <v>100</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>109</v>
@@ -2186,7 +2195,7 @@
         <v>93</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>109</v>
@@ -2200,7 +2209,7 @@
         <v>161</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>109</v>
@@ -2211,10 +2220,10 @@
         <v>168</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>109</v>
@@ -2225,10 +2234,10 @@
         <v>134</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>109</v>
@@ -2242,7 +2251,7 @@
         <v>132</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>109</v>
@@ -2256,7 +2265,7 @@
         <v>170</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>109</v>
@@ -2267,10 +2276,10 @@
         <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>109</v>
@@ -2281,10 +2290,10 @@
         <v>41</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>109</v>
@@ -2295,10 +2304,10 @@
         <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>109</v>
@@ -2309,10 +2318,10 @@
         <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>109</v>
@@ -2323,10 +2332,10 @@
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>109</v>
@@ -2337,10 +2346,10 @@
         <v>77</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>109</v>
@@ -2351,10 +2360,10 @@
         <v>57</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>109</v>
@@ -2365,10 +2374,10 @@
         <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>109</v>
@@ -2379,10 +2388,10 @@
         <v>172</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>109</v>
@@ -2393,10 +2402,10 @@
         <v>97</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>109</v>
@@ -2410,13 +2419,13 @@
         <v>130</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2424,10 +2433,10 @@
         <v>171</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>109</v>
@@ -2438,10 +2447,10 @@
         <v>73</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>109</v>
@@ -2452,10 +2461,10 @@
         <v>71</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>109</v>
@@ -2466,10 +2475,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>109</v>
@@ -2480,10 +2489,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>109</v>
@@ -2494,10 +2503,10 @@
         <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>109</v>
@@ -2508,10 +2517,10 @@
         <v>64</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>109</v>
@@ -2522,10 +2531,10 @@
         <v>136</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>109</v>
@@ -2536,10 +2545,10 @@
         <v>89</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>109</v>
@@ -2550,10 +2559,10 @@
         <v>91</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>109</v>
@@ -2564,10 +2573,10 @@
         <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>109</v>
@@ -2578,10 +2587,10 @@
         <v>79</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>109</v>
@@ -2592,7 +2601,7 @@
         <v>102</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="1" t="s">
@@ -2604,10 +2613,10 @@
         <v>142</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>109</v>
@@ -2621,7 +2630,7 @@
         <v>156</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>109</v>
@@ -2632,10 +2641,10 @@
         <v>154</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>109</v>
@@ -2649,7 +2658,7 @@
         <v>158</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>109</v>
@@ -2663,7 +2672,7 @@
         <v>163</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>109</v>
@@ -2674,10 +2683,10 @@
         <v>90</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>109</v>
@@ -2688,10 +2697,10 @@
         <v>159</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>109</v>
@@ -2702,10 +2711,10 @@
         <v>78</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>109</v>
@@ -2716,10 +2725,10 @@
         <v>141</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>109</v>
@@ -2730,10 +2739,10 @@
         <v>150</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>109</v>
@@ -2744,10 +2753,10 @@
         <v>147</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>109</v>
@@ -2758,10 +2767,10 @@
         <v>146</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>109</v>
@@ -2772,10 +2781,10 @@
         <v>74</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>109</v>
@@ -2786,10 +2795,10 @@
         <v>137</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>109</v>
@@ -2800,10 +2809,10 @@
         <v>135</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>109</v>
@@ -2814,10 +2823,10 @@
         <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>109</v>
@@ -2828,10 +2837,10 @@
         <v>106</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>109</v>
@@ -2842,16 +2851,16 @@
         <v>105</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2929,7 +2938,7 @@
         <v>108</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>112</v>
@@ -2943,7 +2952,7 @@
         <v>166</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>167</v>
@@ -2957,7 +2966,7 @@
         <v>119</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>120</v>
@@ -2971,7 +2980,7 @@
         <v>121</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>122</v>
@@ -2985,7 +2994,7 @@
         <v>138</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>139</v>
@@ -3002,13 +3011,13 @@
         <v>6526</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>183</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="28.8">
@@ -3019,13 +3028,13 @@
         <v>6526</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>185</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="57.6">
@@ -3041,8 +3050,11 @@
       <c r="D81" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="E81" s="14" t="s">
+        <v>345</v>
+      </c>
       <c r="F81" s="1" t="s">
-        <v>186</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="28.8">
@@ -3058,8 +3070,11 @@
       <c r="D82" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="E82" s="14" t="s">
+        <v>345</v>
+      </c>
       <c r="F82" s="1" t="s">
-        <v>187</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="72">
@@ -3076,10 +3091,10 @@
         <v>110</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>188</v>
+        <v>344</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>189</v>
+        <v>336</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="28.8">
@@ -3095,11 +3110,11 @@
       <c r="D84" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>190</v>
+      <c r="E84" s="14" t="s">
+        <v>343</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>191</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3116,7 +3131,7 @@
         <v>110</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3127,7 +3142,7 @@
         <v>7406</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>110</v>
@@ -3141,16 +3156,16 @@
         <v>4164</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>195</v>
+        <v>347</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3161,16 +3176,16 @@
         <v>4164</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>195</v>
+        <v>347</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3181,16 +3196,16 @@
         <v>4164</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>195</v>
+        <v>347</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3201,16 +3216,16 @@
         <v>4164</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>195</v>
+        <v>347</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3221,7 +3236,7 @@
         <v>36</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>110</v>
@@ -3235,13 +3250,13 @@
         <v>76</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3252,7 +3267,7 @@
         <v>56</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>110</v>
@@ -3266,7 +3281,7 @@
         <v>4066</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>110</v>
@@ -3277,16 +3292,16 @@
         <v>53</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="28.8">
@@ -3303,7 +3318,7 @@
         <v>110</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>207</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="187.2">
@@ -3320,7 +3335,7 @@
         <v>110</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>208</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3331,7 +3346,7 @@
         <v>556</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>110</v>
@@ -3345,16 +3360,16 @@
         <v>4164</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>195</v>
+        <v>347</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3365,16 +3380,16 @@
         <v>4164</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>195</v>
+        <v>347</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3385,16 +3400,16 @@
         <v>4164</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>195</v>
+        <v>347</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3405,16 +3420,16 @@
         <v>4164</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>195</v>
+        <v>347</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3425,7 +3440,7 @@
         <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>110</v>
@@ -3439,7 +3454,7 @@
         <v>66</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>110</v>
@@ -3453,7 +3468,7 @@
         <v>49</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>110</v>
@@ -3467,7 +3482,7 @@
         <v>4066</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>110</v>
@@ -3481,7 +3496,7 @@
         <v>8701</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>110</v>
@@ -3489,13 +3504,13 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="17" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>111</v>
@@ -3517,7 +3532,7 @@
         <v>164</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>165</v>
@@ -3534,13 +3549,13 @@
         <v>7812</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3551,13 +3566,13 @@
         <v>7805</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3565,10 +3580,10 @@
         <v>104</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>111</v>
@@ -4388,12 +4403,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4408,7 +4423,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="28" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4420,7 +4435,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="32" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -6477,7 +6492,7 @@
         <v>31</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C109" s="19">
         <v>2408</v>
@@ -6754,7 +6769,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B123" s="19" t="s">
         <v>151</v>
@@ -6774,7 +6789,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B124" s="19" t="s">
         <v>123</v>
@@ -6794,7 +6809,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B125" s="19" t="s">
         <v>124</v>
@@ -6814,7 +6829,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>51</v>
@@ -6834,7 +6849,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B127" s="19" t="s">
         <v>52</v>
@@ -6854,7 +6869,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B128" s="19" t="s">
         <v>58</v>
@@ -6874,7 +6889,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B129" s="19" t="s">
         <v>83</v>
@@ -6894,7 +6909,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B130" s="19" t="s">
         <v>118</v>
@@ -6914,7 +6929,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B131" s="19" t="s">
         <v>98</v>
@@ -6934,7 +6949,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B132" s="19" t="s">
         <v>86</v>
@@ -6954,7 +6969,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B133" s="19" t="s">
         <v>101</v>
@@ -6974,7 +6989,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B134" s="19" t="s">
         <v>99</v>
@@ -6994,7 +7009,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B135" s="19" t="s">
         <v>94</v>
@@ -7014,7 +7029,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B136" s="19" t="s">
         <v>160</v>
@@ -7034,7 +7049,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>168</v>
@@ -7054,7 +7069,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B138" s="19" t="s">
         <v>134</v>
@@ -7074,7 +7089,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B139" s="19" t="s">
         <v>131</v>
@@ -7094,7 +7109,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B140" s="19" t="s">
         <v>169</v>
@@ -7114,7 +7129,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B141" s="19" t="s">
         <v>72</v>
@@ -7134,7 +7149,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>41</v>
@@ -7154,7 +7169,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B143" s="19" t="s">
         <v>39</v>
@@ -7174,7 +7189,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B144" s="19" t="s">
         <v>34</v>
@@ -7194,7 +7209,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B145" s="19" t="s">
         <v>33</v>
@@ -7214,7 +7229,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B146" s="19" t="s">
         <v>77</v>
@@ -7234,7 +7249,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B147" s="19" t="s">
         <v>57</v>
@@ -7254,7 +7269,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>54</v>
@@ -7274,7 +7289,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B149" s="19" t="s">
         <v>172</v>
@@ -7294,7 +7309,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>97</v>
@@ -7314,7 +7329,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B151" s="19" t="s">
         <v>129</v>
@@ -7334,7 +7349,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>171</v>
@@ -7354,7 +7369,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>73</v>
@@ -7374,7 +7389,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B154" s="19" t="s">
         <v>71</v>
@@ -7394,7 +7409,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>40</v>
@@ -7414,7 +7429,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>38</v>
@@ -7434,7 +7449,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B157" s="19" t="s">
         <v>37</v>
@@ -7454,7 +7469,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>64</v>
@@ -7474,7 +7489,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>136</v>
@@ -7494,7 +7509,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>89</v>
@@ -7514,7 +7529,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B161" s="19" t="s">
         <v>91</v>
@@ -7534,7 +7549,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>92</v>
@@ -7554,7 +7569,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>79</v>
@@ -7574,7 +7589,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B164" s="19" t="s">
         <v>102</v>
@@ -7594,7 +7609,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B165" s="19" t="s">
         <v>142</v>
@@ -7614,7 +7629,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B166" s="19" t="s">
         <v>155</v>
@@ -7634,7 +7649,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B167" s="19" t="s">
         <v>154</v>
@@ -7654,7 +7669,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B168" s="19" t="s">
         <v>157</v>
@@ -7674,7 +7689,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B169" s="19" t="s">
         <v>162</v>
@@ -7694,7 +7709,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B170" s="19" t="s">
         <v>90</v>
@@ -7714,7 +7729,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B171" s="19" t="s">
         <v>159</v>
@@ -7734,7 +7749,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B172" s="19" t="s">
         <v>78</v>
@@ -7754,7 +7769,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B173" s="19" t="s">
         <v>141</v>
@@ -7774,7 +7789,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B174" s="19" t="s">
         <v>150</v>
@@ -7794,7 +7809,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B175" s="19" t="s">
         <v>147</v>
@@ -7814,7 +7829,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B176" s="19" t="s">
         <v>146</v>
@@ -7834,7 +7849,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B177" s="19" t="s">
         <v>74</v>
@@ -7854,7 +7869,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B178" s="19" t="s">
         <v>137</v>
@@ -7874,7 +7889,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B179" s="19" t="s">
         <v>135</v>
@@ -7894,7 +7909,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B180" s="19" t="s">
         <v>46</v>
@@ -7914,7 +7929,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B181" s="19" t="s">
         <v>106</v>
@@ -7934,7 +7949,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B182" s="19" t="s">
         <v>125</v>
@@ -7954,7 +7969,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B183" s="19" t="s">
         <v>127</v>
@@ -7974,7 +7989,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B184" s="19" t="s">
         <v>148</v>
@@ -7994,7 +8009,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B185" s="19" t="s">
         <v>115</v>
@@ -8014,7 +8029,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B186" s="19" t="s">
         <v>107</v>
@@ -8034,7 +8049,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B187" s="19" t="s">
         <v>108</v>
@@ -8054,7 +8069,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B188" s="19" t="s">
         <v>166</v>
@@ -8074,7 +8089,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B189" s="19" t="s">
         <v>119</v>
@@ -8094,7 +8109,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B190" s="19" t="s">
         <v>121</v>
@@ -8114,7 +8129,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B191" s="19" t="s">
         <v>138</v>
@@ -8134,7 +8149,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B192" s="19" t="s">
         <v>105</v>
@@ -8154,10 +8169,10 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C193" s="19">
         <v>3167</v>
@@ -8174,7 +8189,7 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B194" s="19" t="s">
         <v>95</v>
@@ -8194,7 +8209,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>164</v>
@@ -8214,7 +8229,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B196" s="19" t="s">
         <v>143</v>
@@ -8234,7 +8249,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>140</v>
@@ -8254,7 +8269,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>50</v>
@@ -8274,7 +8289,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B199" s="19" t="s">
         <v>59</v>
@@ -8294,7 +8309,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>62</v>
@@ -8314,7 +8329,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B201" s="19" t="s">
         <v>84</v>
@@ -8334,7 +8349,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B202" s="19" t="s">
         <v>144</v>
@@ -8354,7 +8369,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>32</v>
@@ -8374,7 +8389,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B204" s="19" t="s">
         <v>69</v>
@@ -8394,7 +8409,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B205" s="19" t="s">
         <v>67</v>
@@ -8414,7 +8429,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B206" s="19" t="s">
         <v>44</v>
@@ -8434,7 +8449,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B207" s="19" t="s">
         <v>42</v>
@@ -8454,7 +8469,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B208" s="19" t="s">
         <v>35</v>
@@ -8474,7 +8489,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B209" s="19" t="s">
         <v>75</v>
@@ -8494,7 +8509,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B210" s="19" t="s">
         <v>55</v>
@@ -8514,7 +8529,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B211" s="19" t="s">
         <v>82</v>
@@ -8534,7 +8549,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B212" s="19" t="s">
         <v>53</v>
@@ -8554,7 +8569,7 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B213" s="19" t="s">
         <v>87</v>
@@ -8574,7 +8589,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B214" s="19" t="s">
         <v>80</v>
@@ -8594,7 +8609,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B215" s="19" t="s">
         <v>133</v>
@@ -8614,7 +8629,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B216" s="19" t="s">
         <v>70</v>
@@ -8634,7 +8649,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B217" s="19" t="s">
         <v>68</v>
@@ -8654,7 +8669,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B218" s="19" t="s">
         <v>45</v>
@@ -8674,7 +8689,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B219" s="19" t="s">
         <v>43</v>
@@ -8694,7 +8709,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B220" s="19" t="s">
         <v>47</v>
@@ -8714,7 +8729,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B221" s="19" t="s">
         <v>65</v>
@@ -8734,7 +8749,7 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B222" s="19" t="s">
         <v>48</v>
@@ -8754,7 +8769,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B223" s="19" t="s">
         <v>117</v>
@@ -8774,7 +8789,7 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B224" s="19" t="s">
         <v>103</v>
@@ -8794,7 +8809,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B225" s="19" t="s">
         <v>152</v>
@@ -8814,7 +8829,7 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B226" s="19" t="s">
         <v>153</v>
@@ -8834,7 +8849,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="14" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B227" s="19" t="s">
         <v>104</v>
@@ -10585,12 +10600,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="13" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10600,7 +10615,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="28" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -10608,7 +10623,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="32" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -10642,10 +10657,10 @@
         <v>127</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10653,10 +10668,10 @@
         <v>148</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10664,10 +10679,10 @@
         <v>115</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -10675,10 +10690,10 @@
         <v>107</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -10686,10 +10701,10 @@
         <v>108</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -10697,10 +10712,10 @@
         <v>166</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10708,10 +10723,10 @@
         <v>119</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10719,10 +10734,10 @@
         <v>121</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -10730,10 +10745,10 @@
         <v>143</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -10741,10 +10756,10 @@
         <v>140</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -10752,10 +10767,10 @@
         <v>50</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -10763,10 +10778,10 @@
         <v>59</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -10774,10 +10789,10 @@
         <v>62</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -10785,10 +10800,10 @@
         <v>84</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -10796,10 +10811,10 @@
         <v>144</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -10807,10 +10822,10 @@
         <v>32</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -10818,10 +10833,10 @@
         <v>69</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -10829,10 +10844,10 @@
         <v>67</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -10840,10 +10855,10 @@
         <v>44</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -10851,10 +10866,10 @@
         <v>42</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -10862,10 +10877,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -10873,10 +10888,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -10884,10 +10899,10 @@
         <v>55</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -10895,10 +10910,10 @@
         <v>82</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -10906,10 +10921,10 @@
         <v>53</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -10917,10 +10932,10 @@
         <v>87</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -10928,10 +10943,10 @@
         <v>80</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -10939,10 +10954,10 @@
         <v>133</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -10950,10 +10965,10 @@
         <v>70</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -10961,10 +10976,10 @@
         <v>68</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -10972,10 +10987,10 @@
         <v>45</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -10983,10 +10998,10 @@
         <v>43</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -10994,10 +11009,10 @@
         <v>47</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -11005,10 +11020,10 @@
         <v>65</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -11016,10 +11031,10 @@
         <v>48</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -11027,10 +11042,10 @@
         <v>117</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -11038,10 +11053,10 @@
         <v>152</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -11049,10 +11064,10 @@
         <v>153</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -11157,7 +11172,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F00A795-F924-4957-BF24-7CBCF1582012}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -11173,12 +11188,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11188,14 +11203,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -11224,347 +11239,424 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
-        <v>143</v>
+      <c r="A9" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
-        <v>140</v>
+      <c r="A10" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
-        <v>50</v>
+      <c r="A11" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>225</v>
+        <v>333</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>273</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
-        <v>59</v>
+      <c r="A12" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>225</v>
+        <v>333</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>273</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
-        <v>62</v>
+      <c r="A13" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>226</v>
+        <v>333</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>274</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
-        <v>84</v>
+      <c r="A14" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>227</v>
+        <v>333</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>275</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
-        <v>144</v>
+      <c r="A15" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="17" t="s">
+      <c r="B31" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C27" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="B32" s="6" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>239</v>
+      <c r="A34" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="C34" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C36" t="s">
-        <v>288</v>
+        <v>217</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>153</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C37" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="28"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="31"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="29"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="29"/>
+      <c r="B44" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="28"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="31"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="30"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="14"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="14"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="14"/>
+      <c r="A51" s="29"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="29"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="30"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="14"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="14"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11594,12 +11686,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11607,12 +11699,12 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11641,10 +11733,10 @@
         <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C9" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -11693,12 +11785,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11707,14 +11799,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -11743,24 +11835,24 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -11815,12 +11907,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11829,14 +11921,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -11865,79 +11957,79 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C9" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B11" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C11" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B12" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C12" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B13" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C13" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B14" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C14" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/Data/Commodore 64 Breadbin/250425/Data C64 Breadbin 250425.xlsx
+++ b/Data/Commodore 64 Breadbin/250425/Data C64 Breadbin 250425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64 Breadbin\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BCD354-FE02-4218-822C-E87AED3E5AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C73A3AC-E89B-468C-A3FD-430F3B1E5358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>

--- a/Data/Commodore 64 Breadbin/250425/Data C64 Breadbin 250425.xlsx
+++ b/Data/Commodore 64 Breadbin/250425/Data C64 Breadbin 250425.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64 Breadbin\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C73A3AC-E89B-468C-A3FD-430F3B1E5358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FB7BD0-680A-40CA-93C7-C516001F6592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
     <sheet name="Components" sheetId="1" r:id="rId2"/>
     <sheet name="Component highlights" sheetId="6" r:id="rId3"/>
-    <sheet name="Component images" sheetId="11" r:id="rId4"/>
-    <sheet name="Component local files" sheetId="7" r:id="rId5"/>
-    <sheet name="Component links" sheetId="8" r:id="rId6"/>
-    <sheet name="Board local files" sheetId="9" r:id="rId7"/>
-    <sheet name="Board links" sheetId="10" r:id="rId8"/>
+    <sheet name="Component oscilloscope" sheetId="12" r:id="rId4"/>
+    <sheet name="Component images" sheetId="11" r:id="rId5"/>
+    <sheet name="Component local files" sheetId="7" r:id="rId6"/>
+    <sheet name="Component links" sheetId="8" r:id="rId7"/>
+    <sheet name="Board local files" sheetId="9" r:id="rId8"/>
+    <sheet name="Board links" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="353">
   <si>
     <t>Name</t>
   </si>
@@ -653,15 +654,6 @@
   </si>
   <si>
     <t>Logic AND gate</t>
-  </si>
-  <si>
-    <t>12V DC regulator</t>
-  </si>
-  <si>
-    <t>Voltage regulator</t>
-  </si>
-  <si>
-    <t>5V DC regulator</t>
   </si>
   <si>
     <t>6 pin</t>
@@ -752,141 +744,6 @@
     </r>
   </si>
   <si>
-    <t>Data\Commodore 64 Breadbin\250425\251469-1of2.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore 64 Breadbin\250425\251469-2of2.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\User port.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\Cassette port.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\Serial bus.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\Video-audio port.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\Expansion port.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\Power_connector.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\Joystick port 2.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\Joystick port 1.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\6526.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\2364.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\2332.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\2114.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\6510.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\7406.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\4164.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\74LS257.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\74LS258.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\74LS139.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\4066.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\906114-01-PLA.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\6581.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\6569.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\LM556.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\74LS373.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\7408.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\MC7800-series.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\mos_6526_cia_recreated.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\mos_2364_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\mos_2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\2114L_fairchild.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\mos_6510_mpu_nov_1982.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\SN7406.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\km4164b_samsung.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\74LS257A_Fairchild.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\hd74ls258_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\hd74ls139_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\hd14066b_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\c64_pla_dissected_a4ds.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\mos_6567_vic_ii_preliminary.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\NE556.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\dm74ls373_national_semiconductor.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\sn74ls08_ti.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\MC7800.PDF</t>
-  </si>
-  <si>
     <t>Documentation of columns in this worksheet is availble here:</t>
   </si>
   <si>
@@ -1035,15 +892,9 @@
     <t>C64 Service Manual</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Board local files\C64C_Service_Manual_1992.pdf</t>
-  </si>
-  <si>
     <t>C64 Diagnostic Instruction and Troubleshooting</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Board local files\C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
-  </si>
-  <si>
     <t>The Pictorial C64 Fault Guide</t>
   </si>
   <si>
@@ -1053,9 +904,6 @@
     <t>Ray Carlsen; CBM</t>
   </si>
   <si>
-    <t>Data\Commodore 64 Breadbin\250425\Board-Layout-250425.jpg</t>
-  </si>
-  <si>
     <t>Board layout</t>
   </si>
   <si>
@@ -1072,9 +920,6 @@
   </si>
   <si>
     <t>PET/VIC-20/C64 Port Pinouts</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Board local files\commodore_pet_vic-20_c64_port_pinouts.pdf</t>
   </si>
   <si>
     <t>Memory locaton:
@@ -1149,6 +994,176 @@
       </rPr>
       <t>2025-April-20</t>
     </r>
+  </si>
+  <si>
+    <t>12VDC voltage regulator</t>
+  </si>
+  <si>
+    <t>5VDC voltage regulator</t>
+  </si>
+  <si>
+    <t>Data/Commodore 64 Breadbin/250425/251469-1of2.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore 64 Breadbin/250425/251469-2of2.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore 64 Breadbin/250425/Board-Layout-250425.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/User port.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Cassette port.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Serial bus.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Video-audio port.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Expansion port.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Power_connector.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Joystick port 2.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Joystick port 1.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/6526.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/2364.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/2332.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/2114.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/6510.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/7406.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/4164.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/74LS257.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/74LS258.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/74LS139.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/4066.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/906114-01-PLA.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/6581.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/6569.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/LM556.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/74LS373.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/7408.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/MC7800-series.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6526_cia_recreated.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_2364_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/2114L_fairchild.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6510_mpu_nov_1982.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/SN7406.PDF</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/km4164b_samsung.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/74LS257A_Fairchild.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/hd74ls258_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/hd74ls139_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/hd14066b_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/c64_pla_dissected_a4ds.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6567_vic_ii_preliminary.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/NE556.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/dm74ls373_national_semiconductor.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/sn74ls08_ti.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/MC7800.PDF</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Board local files/C64C_Service_Manual_1992.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
+  </si>
+  <si>
+    <t>PAL = 17.73447 MHz
+NTSC = 14.31818 MHz
+Do note that you maybe will not be able to measure directly on the crystal, as the signal may be too fragile for that, and the system may stall (harmless, but requires a power-recycle). Try measuring with a 10X or even 100X attenuation oscilloscope probe.</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Component behaviour</t>
+  </si>
+  <si>
+    <t>Reading</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1287,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1362,6 +1377,45 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1682,9 +1736,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1698,17 +1752,17 @@
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1721,7 +1775,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="28" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1732,7 +1786,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="32" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1793,7 +1847,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
@@ -1816,7 +1870,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
@@ -1837,10 +1891,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>9</v>
@@ -1948,8 +2002,8 @@
   <dimension ref="A1:F305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="8" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1965,12 +2019,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1978,12 +2032,12 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="28" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="32" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2024,10 +2078,10 @@
         <v>151</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>109</v>
@@ -2038,10 +2092,10 @@
         <v>123</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>109</v>
@@ -2052,10 +2106,10 @@
         <v>124</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>109</v>
@@ -2066,10 +2120,10 @@
         <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>109</v>
@@ -2080,10 +2134,10 @@
         <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>109</v>
@@ -2094,10 +2148,10 @@
         <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>109</v>
@@ -2108,10 +2162,10 @@
         <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>109</v>
@@ -2122,10 +2176,10 @@
         <v>118</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>109</v>
@@ -2136,10 +2190,10 @@
         <v>98</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>109</v>
@@ -2150,10 +2204,10 @@
         <v>86</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>109</v>
@@ -2164,10 +2218,10 @@
         <v>101</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>109</v>
@@ -2181,7 +2235,7 @@
         <v>100</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>109</v>
@@ -2195,7 +2249,7 @@
         <v>93</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>109</v>
@@ -2209,7 +2263,7 @@
         <v>161</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>109</v>
@@ -2220,10 +2274,10 @@
         <v>168</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>109</v>
@@ -2234,10 +2288,10 @@
         <v>134</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>109</v>
@@ -2251,7 +2305,7 @@
         <v>132</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>109</v>
@@ -2265,7 +2319,7 @@
         <v>170</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>109</v>
@@ -2276,10 +2330,10 @@
         <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>109</v>
@@ -2290,10 +2344,10 @@
         <v>41</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>109</v>
@@ -2304,10 +2358,10 @@
         <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>109</v>
@@ -2318,10 +2372,10 @@
         <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>109</v>
@@ -2332,10 +2386,10 @@
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>109</v>
@@ -2346,10 +2400,10 @@
         <v>77</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>109</v>
@@ -2360,10 +2414,10 @@
         <v>57</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>109</v>
@@ -2374,10 +2428,10 @@
         <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>109</v>
@@ -2388,10 +2442,10 @@
         <v>172</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>109</v>
@@ -2402,10 +2456,10 @@
         <v>97</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>109</v>
@@ -2419,13 +2473,13 @@
         <v>130</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2433,10 +2487,10 @@
         <v>171</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>109</v>
@@ -2447,10 +2501,10 @@
         <v>73</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>109</v>
@@ -2461,10 +2515,10 @@
         <v>71</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>109</v>
@@ -2475,10 +2529,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>109</v>
@@ -2489,10 +2543,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>109</v>
@@ -2503,10 +2557,10 @@
         <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>109</v>
@@ -2517,10 +2571,10 @@
         <v>64</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>109</v>
@@ -2531,10 +2585,10 @@
         <v>136</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>109</v>
@@ -2545,10 +2599,10 @@
         <v>89</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>109</v>
@@ -2559,10 +2613,10 @@
         <v>91</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>109</v>
@@ -2573,10 +2627,10 @@
         <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>109</v>
@@ -2587,10 +2641,10 @@
         <v>79</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>109</v>
@@ -2601,7 +2655,7 @@
         <v>102</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="1" t="s">
@@ -2613,10 +2667,10 @@
         <v>142</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>109</v>
@@ -2630,7 +2684,7 @@
         <v>156</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>109</v>
@@ -2641,10 +2695,10 @@
         <v>154</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>109</v>
@@ -2658,7 +2712,7 @@
         <v>158</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>109</v>
@@ -2672,7 +2726,7 @@
         <v>163</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>109</v>
@@ -2683,10 +2737,10 @@
         <v>90</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>109</v>
@@ -2697,10 +2751,10 @@
         <v>159</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>109</v>
@@ -2711,10 +2765,10 @@
         <v>78</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>109</v>
@@ -2725,10 +2779,10 @@
         <v>141</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>109</v>
@@ -2739,10 +2793,10 @@
         <v>150</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>109</v>
@@ -2753,10 +2807,10 @@
         <v>147</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>109</v>
@@ -2767,10 +2821,10 @@
         <v>146</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>109</v>
@@ -2781,10 +2835,10 @@
         <v>74</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>109</v>
@@ -2795,10 +2849,10 @@
         <v>137</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>109</v>
@@ -2809,10 +2863,10 @@
         <v>135</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>109</v>
@@ -2823,10 +2877,10 @@
         <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>109</v>
@@ -2837,10 +2891,10 @@
         <v>106</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>109</v>
@@ -2851,16 +2905,16 @@
         <v>105</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2938,7 +2992,7 @@
         <v>108</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>112</v>
@@ -3017,7 +3071,7 @@
         <v>110</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="28.8">
@@ -3034,7 +3088,7 @@
         <v>110</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="57.6">
@@ -3051,10 +3105,10 @@
         <v>110</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="28.8">
@@ -3071,10 +3125,10 @@
         <v>110</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="72">
@@ -3091,10 +3145,10 @@
         <v>110</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="28.8">
@@ -3111,10 +3165,10 @@
         <v>110</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3156,13 +3210,13 @@
         <v>4164</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>185</v>
@@ -3176,13 +3230,13 @@
         <v>4164</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>186</v>
@@ -3196,13 +3250,13 @@
         <v>4164</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>187</v>
@@ -3216,13 +3270,13 @@
         <v>4164</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>188</v>
@@ -3318,7 +3372,7 @@
         <v>110</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="187.2">
@@ -3335,7 +3389,7 @@
         <v>110</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3360,13 +3414,13 @@
         <v>4164</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>197</v>
@@ -3380,13 +3434,13 @@
         <v>4164</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>198</v>
@@ -3400,13 +3454,13 @@
         <v>4164</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>199</v>
@@ -3420,13 +3474,13 @@
         <v>4164</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>200</v>
@@ -3496,7 +3550,7 @@
         <v>8701</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>110</v>
@@ -3504,13 +3558,13 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="17" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>111</v>
@@ -3532,7 +3586,7 @@
         <v>164</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>165</v>
@@ -3549,13 +3603,10 @@
         <v>7812</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3566,72 +3617,72 @@
         <v>7805</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+    </row>
+    <row r="113" spans="1:6" ht="100.8">
       <c r="A113" s="17" t="s">
         <v>104</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="F113" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="17"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:6">
       <c r="A115" s="28"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:6">
       <c r="A116" s="28"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:6">
       <c r="A117" s="29"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:6">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:6">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:6">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:6">
       <c r="A121" s="29"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:6">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:6">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:6">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:6">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:6">
       <c r="A126" s="29"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:6">
       <c r="A127" s="14"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:6">
       <c r="A128" s="14"/>
     </row>
     <row r="129" spans="1:1">
@@ -4388,7 +4439,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4403,12 +4454,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4423,7 +4474,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="28" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4435,7 +4486,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="32" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -6492,7 +6543,7 @@
         <v>31</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="C109" s="19">
         <v>2408</v>
@@ -6769,7 +6820,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B123" s="19" t="s">
         <v>151</v>
@@ -6789,7 +6840,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B124" s="19" t="s">
         <v>123</v>
@@ -6809,7 +6860,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B125" s="19" t="s">
         <v>124</v>
@@ -6829,7 +6880,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>51</v>
@@ -6849,7 +6900,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B127" s="19" t="s">
         <v>52</v>
@@ -6869,7 +6920,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B128" s="19" t="s">
         <v>58</v>
@@ -6889,7 +6940,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B129" s="19" t="s">
         <v>83</v>
@@ -6909,7 +6960,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B130" s="19" t="s">
         <v>118</v>
@@ -6929,7 +6980,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B131" s="19" t="s">
         <v>98</v>
@@ -6949,7 +7000,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B132" s="19" t="s">
         <v>86</v>
@@ -6969,7 +7020,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B133" s="19" t="s">
         <v>101</v>
@@ -6989,7 +7040,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B134" s="19" t="s">
         <v>99</v>
@@ -7009,7 +7060,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B135" s="19" t="s">
         <v>94</v>
@@ -7029,7 +7080,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B136" s="19" t="s">
         <v>160</v>
@@ -7049,7 +7100,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>168</v>
@@ -7069,7 +7120,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B138" s="19" t="s">
         <v>134</v>
@@ -7089,7 +7140,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B139" s="19" t="s">
         <v>131</v>
@@ -7109,7 +7160,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B140" s="19" t="s">
         <v>169</v>
@@ -7129,7 +7180,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B141" s="19" t="s">
         <v>72</v>
@@ -7149,7 +7200,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>41</v>
@@ -7169,7 +7220,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B143" s="19" t="s">
         <v>39</v>
@@ -7189,7 +7240,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B144" s="19" t="s">
         <v>34</v>
@@ -7209,7 +7260,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B145" s="19" t="s">
         <v>33</v>
@@ -7229,7 +7280,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B146" s="19" t="s">
         <v>77</v>
@@ -7249,7 +7300,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B147" s="19" t="s">
         <v>57</v>
@@ -7269,7 +7320,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>54</v>
@@ -7289,7 +7340,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B149" s="19" t="s">
         <v>172</v>
@@ -7309,7 +7360,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>97</v>
@@ -7329,7 +7380,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B151" s="19" t="s">
         <v>129</v>
@@ -7349,7 +7400,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>171</v>
@@ -7369,7 +7420,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>73</v>
@@ -7389,7 +7440,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B154" s="19" t="s">
         <v>71</v>
@@ -7409,7 +7460,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>40</v>
@@ -7429,7 +7480,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>38</v>
@@ -7449,7 +7500,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B157" s="19" t="s">
         <v>37</v>
@@ -7469,7 +7520,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>64</v>
@@ -7489,7 +7540,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>136</v>
@@ -7509,7 +7560,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>89</v>
@@ -7529,7 +7580,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B161" s="19" t="s">
         <v>91</v>
@@ -7549,7 +7600,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>92</v>
@@ -7569,7 +7620,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>79</v>
@@ -7589,7 +7640,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B164" s="19" t="s">
         <v>102</v>
@@ -7609,7 +7660,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B165" s="19" t="s">
         <v>142</v>
@@ -7629,7 +7680,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B166" s="19" t="s">
         <v>155</v>
@@ -7649,7 +7700,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B167" s="19" t="s">
         <v>154</v>
@@ -7669,7 +7720,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B168" s="19" t="s">
         <v>157</v>
@@ -7689,7 +7740,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B169" s="19" t="s">
         <v>162</v>
@@ -7709,7 +7760,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B170" s="19" t="s">
         <v>90</v>
@@ -7729,7 +7780,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B171" s="19" t="s">
         <v>159</v>
@@ -7749,7 +7800,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B172" s="19" t="s">
         <v>78</v>
@@ -7769,7 +7820,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B173" s="19" t="s">
         <v>141</v>
@@ -7789,7 +7840,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B174" s="19" t="s">
         <v>150</v>
@@ -7809,7 +7860,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B175" s="19" t="s">
         <v>147</v>
@@ -7829,7 +7880,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B176" s="19" t="s">
         <v>146</v>
@@ -7849,7 +7900,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B177" s="19" t="s">
         <v>74</v>
@@ -7869,7 +7920,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B178" s="19" t="s">
         <v>137</v>
@@ -7889,7 +7940,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B179" s="19" t="s">
         <v>135</v>
@@ -7909,7 +7960,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B180" s="19" t="s">
         <v>46</v>
@@ -7929,7 +7980,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B181" s="19" t="s">
         <v>106</v>
@@ -7949,7 +8000,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B182" s="19" t="s">
         <v>125</v>
@@ -7969,7 +8020,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B183" s="19" t="s">
         <v>127</v>
@@ -7989,7 +8040,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B184" s="19" t="s">
         <v>148</v>
@@ -8009,7 +8060,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B185" s="19" t="s">
         <v>115</v>
@@ -8029,7 +8080,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B186" s="19" t="s">
         <v>107</v>
@@ -8049,7 +8100,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B187" s="19" t="s">
         <v>108</v>
@@ -8069,7 +8120,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B188" s="19" t="s">
         <v>166</v>
@@ -8089,7 +8140,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B189" s="19" t="s">
         <v>119</v>
@@ -8109,7 +8160,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B190" s="19" t="s">
         <v>121</v>
@@ -8129,7 +8180,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B191" s="19" t="s">
         <v>138</v>
@@ -8149,7 +8200,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B192" s="19" t="s">
         <v>105</v>
@@ -8169,10 +8220,10 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="C193" s="19">
         <v>3167</v>
@@ -8189,7 +8240,7 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B194" s="19" t="s">
         <v>95</v>
@@ -8209,7 +8260,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>164</v>
@@ -8229,7 +8280,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B196" s="19" t="s">
         <v>143</v>
@@ -8249,7 +8300,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>140</v>
@@ -8269,7 +8320,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>50</v>
@@ -8289,7 +8340,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B199" s="19" t="s">
         <v>59</v>
@@ -8309,7 +8360,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>62</v>
@@ -8329,7 +8380,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B201" s="19" t="s">
         <v>84</v>
@@ -8349,7 +8400,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B202" s="19" t="s">
         <v>144</v>
@@ -8369,7 +8420,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>32</v>
@@ -8389,7 +8440,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B204" s="19" t="s">
         <v>69</v>
@@ -8409,7 +8460,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B205" s="19" t="s">
         <v>67</v>
@@ -8429,7 +8480,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B206" s="19" t="s">
         <v>44</v>
@@ -8449,7 +8500,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B207" s="19" t="s">
         <v>42</v>
@@ -8469,7 +8520,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B208" s="19" t="s">
         <v>35</v>
@@ -8489,7 +8540,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B209" s="19" t="s">
         <v>75</v>
@@ -8509,7 +8560,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B210" s="19" t="s">
         <v>55</v>
@@ -8529,7 +8580,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B211" s="19" t="s">
         <v>82</v>
@@ -8549,7 +8600,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B212" s="19" t="s">
         <v>53</v>
@@ -8569,7 +8620,7 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B213" s="19" t="s">
         <v>87</v>
@@ -8589,7 +8640,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B214" s="19" t="s">
         <v>80</v>
@@ -8609,7 +8660,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B215" s="19" t="s">
         <v>133</v>
@@ -8629,7 +8680,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B216" s="19" t="s">
         <v>70</v>
@@ -8649,7 +8700,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B217" s="19" t="s">
         <v>68</v>
@@ -8669,7 +8720,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B218" s="19" t="s">
         <v>45</v>
@@ -8689,7 +8740,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B219" s="19" t="s">
         <v>43</v>
@@ -8709,7 +8760,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B220" s="19" t="s">
         <v>47</v>
@@ -8729,7 +8780,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B221" s="19" t="s">
         <v>65</v>
@@ -8749,7 +8800,7 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B222" s="19" t="s">
         <v>48</v>
@@ -8769,7 +8820,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B223" s="19" t="s">
         <v>117</v>
@@ -8789,7 +8840,7 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B224" s="19" t="s">
         <v>103</v>
@@ -8809,7 +8860,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B225" s="19" t="s">
         <v>152</v>
@@ -8829,7 +8880,7 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B226" s="19" t="s">
         <v>153</v>
@@ -8849,7 +8900,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="14" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B227" s="19" t="s">
         <v>104</v>
@@ -10581,9 +10632,1053 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E1E303-7B1B-47A6-93AB-8380DC68CC76}">
+  <dimension ref="A1:F198"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="89.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21">
+      <c r="A1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
+      <c r="A2" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1">
+      <c r="A4" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1">
+      <c r="A5" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1">
+      <c r="A7" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1">
+      <c r="A8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="E77" s="14"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="E82" s="14"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="E83" s="14"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="E84" s="14"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="E86" s="14"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="E87" s="14"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="E88" s="14"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="E89" s="14"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="E90" s="14"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="E91" s="14"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="E93" s="14"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="E94" s="14"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="E95" s="14"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="14"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="14"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="14"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="14"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="14"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="14"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="14"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="14"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="14"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="14"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="14"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="14"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="14"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="14"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="14"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="14"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="14"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="14"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="14"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="14"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="14"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="14"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="14"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="14"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="14"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="14"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="14"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="14"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="14"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="14"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="14"/>
+      <c r="B121" s="14"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="14"/>
+      <c r="B122" s="14"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="14"/>
+      <c r="B123" s="14"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="14"/>
+      <c r="B124" s="14"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="14"/>
+      <c r="B125" s="14"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="14"/>
+      <c r="B126" s="14"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="14"/>
+      <c r="B127" s="14"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="14"/>
+      <c r="B128" s="14"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="14"/>
+      <c r="B129" s="14"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="14"/>
+      <c r="B130" s="14"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="14"/>
+      <c r="B131" s="14"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="14"/>
+      <c r="B132" s="14"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="14"/>
+      <c r="B133" s="14"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="14"/>
+      <c r="B134" s="14"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="14"/>
+      <c r="B135" s="14"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="14"/>
+      <c r="B136" s="14"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="14"/>
+      <c r="B137" s="14"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="14"/>
+      <c r="B138" s="14"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="14"/>
+      <c r="B139" s="14"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="14"/>
+      <c r="B140" s="14"/>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="14"/>
+      <c r="B141" s="14"/>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="14"/>
+      <c r="B142" s="14"/>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="14"/>
+      <c r="B143" s="14"/>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="14"/>
+      <c r="B144" s="14"/>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="14"/>
+      <c r="B145" s="14"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="14"/>
+      <c r="B146" s="14"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="14"/>
+      <c r="B147" s="14"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="14"/>
+      <c r="B148" s="14"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="14"/>
+      <c r="B149" s="14"/>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="14"/>
+      <c r="B150" s="14"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="14"/>
+      <c r="B151" s="14"/>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="14"/>
+      <c r="B152" s="14"/>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="14"/>
+      <c r="B153" s="14"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="14"/>
+      <c r="B154" s="14"/>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="14"/>
+      <c r="B155" s="14"/>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="14"/>
+      <c r="B156" s="14"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="14"/>
+      <c r="B157" s="14"/>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="14"/>
+      <c r="B158" s="14"/>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="14"/>
+      <c r="B159" s="14"/>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="14"/>
+      <c r="B160" s="14"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="14"/>
+      <c r="B161" s="14"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="14"/>
+      <c r="B162" s="14"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="14"/>
+      <c r="B163" s="14"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="14"/>
+      <c r="B164" s="14"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="14"/>
+      <c r="B165" s="14"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="14"/>
+      <c r="B166" s="14"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="14"/>
+      <c r="B167" s="14"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="14"/>
+      <c r="B168" s="14"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="14"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="41"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="14"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="14"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="41"/>
+      <c r="D170" s="14"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="14"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="41"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="14"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="14"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="14"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="14"/>
+      <c r="B173" s="14"/>
+      <c r="C173" s="41"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="14"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="14"/>
+      <c r="B174" s="14"/>
+      <c r="C174" s="41"/>
+      <c r="D174" s="14"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="14"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="41"/>
+      <c r="D175" s="14"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="14"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="14"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="14"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="41"/>
+      <c r="D177" s="14"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="14"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="41"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="14"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="14"/>
+      <c r="B179" s="14"/>
+      <c r="C179" s="41"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="14"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="14"/>
+      <c r="B180" s="14"/>
+      <c r="C180" s="41"/>
+      <c r="D180" s="14"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="14"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="41"/>
+      <c r="D181" s="14"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="14"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="41"/>
+      <c r="D182" s="14"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="14"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="41"/>
+      <c r="D183" s="14"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="14"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="41"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="14"/>
+      <c r="B185" s="14"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="14"/>
+      <c r="B186" s="14"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="14"/>
+      <c r="B187" s="14"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="14"/>
+      <c r="B188" s="14"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="14"/>
+      <c r="B189" s="14"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="14"/>
+      <c r="B190" s="14"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="14"/>
+      <c r="B191" s="14"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="14"/>
+      <c r="B192" s="14"/>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="14"/>
+      <c r="B193" s="14"/>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="14"/>
+      <c r="B194" s="14"/>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="14"/>
+      <c r="B195" s="14"/>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="14"/>
+      <c r="B196" s="14"/>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="14"/>
+      <c r="B197" s="14"/>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="14"/>
+      <c r="B198" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" location="worksheet-component-images" xr:uid="{E483D0C3-78F3-43B5-8A42-CFD30243CE4D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -10593,572 +11688,730 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="8.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="71" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:7" ht="21">
       <c r="A1" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="21">
+        <v>227</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>236</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="17"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="17"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+        <v>228</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+        <v>232</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="17"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="17"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="24"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" s="17"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" s="19"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11" s="19"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="17"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="19"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" s="19"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15" s="19"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="19"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="B17" s="19"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="B18" s="19"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="B20" s="19"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="B21" s="19"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="B22" s="19"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="B23" s="17"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="B24" s="17"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="B25" s="17"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="B26" s="17"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="B27" s="17"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="B29" s="14"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="B31" s="14"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="B33" s="14"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="B34" s="14"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="B37" s="14"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="B38" s="14"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="B40" s="14"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="B42" s="14"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="B43" s="14"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="B44" s="14"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="B45" s="14"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="B46" s="14"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="14"/>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="B47" s="14"/>
+      <c r="C47" s="41"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="28"/>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="28"/>
+      <c r="C48" s="36"/>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49"/>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="29"/>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="29"/>
+      <c r="C50" s="42"/>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51"/>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51"/>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="14"/>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="14"/>
+      <c r="C52" s="41"/>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="14"/>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="14"/>
+      <c r="C53" s="41"/>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="30"/>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" s="30"/>
+      <c r="C54" s="43"/>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="14"/>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="14"/>
+      <c r="C55" s="41"/>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="14"/>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" s="14"/>
+      <c r="C56" s="41"/>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="14"/>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" s="14"/>
+      <c r="C57" s="41"/>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="30"/>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" s="30"/>
+      <c r="C58" s="43"/>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="14"/>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" s="14"/>
+      <c r="C59" s="41"/>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="14"/>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" s="14"/>
+      <c r="C60" s="41"/>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="14"/>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" s="14"/>
+      <c r="C61" s="41"/>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="14"/>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" s="14"/>
+      <c r="C62" s="41"/>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="14"/>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" s="14"/>
+      <c r="C63" s="41"/>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="14"/>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" s="14"/>
+      <c r="C64" s="41"/>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="14"/>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" s="14"/>
+      <c r="C65" s="41"/>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="14"/>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" s="14"/>
+      <c r="C66" s="41"/>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="14"/>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" s="14"/>
+      <c r="C67" s="41"/>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="14"/>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68" s="14"/>
+      <c r="C68" s="41"/>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="14"/>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69" s="14"/>
+      <c r="C69" s="41"/>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="14"/>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70" s="14"/>
+      <c r="C70" s="41"/>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="14"/>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71" s="14"/>
+      <c r="C71" s="41"/>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="14"/>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72" s="14"/>
+      <c r="C72" s="41"/>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="14"/>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73" s="14"/>
+      <c r="C73" s="41"/>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="14"/>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" s="14"/>
+      <c r="C74" s="41"/>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="14"/>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75" s="14"/>
+      <c r="C75" s="41"/>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11169,14 +12422,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F00A795-F924-4957-BF24-7CBCF1582012}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11188,12 +12441,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11203,14 +12456,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -11243,10 +12496,10 @@
         <v>127</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11254,10 +12507,10 @@
         <v>148</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11265,10 +12518,10 @@
         <v>115</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11276,10 +12529,10 @@
         <v>107</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -11287,10 +12540,10 @@
         <v>108</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -11298,10 +12551,10 @@
         <v>119</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11309,10 +12562,10 @@
         <v>121</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11320,10 +12573,10 @@
         <v>143</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -11331,10 +12584,10 @@
         <v>140</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -11342,10 +12595,10 @@
         <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -11353,10 +12606,10 @@
         <v>59</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -11364,10 +12617,10 @@
         <v>62</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>261</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -11375,10 +12628,10 @@
         <v>84</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>262</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11386,10 +12639,10 @@
         <v>144</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -11397,10 +12650,10 @@
         <v>32</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>264</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11408,10 +12661,10 @@
         <v>69</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11419,10 +12672,10 @@
         <v>67</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -11430,10 +12683,10 @@
         <v>44</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -11441,10 +12694,10 @@
         <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -11452,10 +12705,10 @@
         <v>35</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>266</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -11463,10 +12716,10 @@
         <v>75</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>267</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -11474,10 +12727,10 @@
         <v>55</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>268</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -11485,10 +12738,10 @@
         <v>82</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -11496,10 +12749,10 @@
         <v>53</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>270</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -11507,10 +12760,10 @@
         <v>80</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
-        <v>271</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -11518,10 +12771,10 @@
         <v>133</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C34" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -11529,10 +12782,10 @@
         <v>70</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -11540,10 +12793,10 @@
         <v>68</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -11551,10 +12804,10 @@
         <v>45</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -11562,10 +12815,10 @@
         <v>43</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -11573,10 +12826,10 @@
         <v>47</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>266</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -11584,10 +12837,10 @@
         <v>65</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C40" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -11595,10 +12848,10 @@
         <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>274</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -11606,10 +12859,10 @@
         <v>117</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -11617,10 +12870,10 @@
         <v>152</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C43" t="s">
-        <v>275</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -11628,10 +12881,10 @@
         <v>153</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -11667,7 +12920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9014B11-7294-4050-ABF4-8B4EFBD7F103}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C30"/>
@@ -11686,12 +12939,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11699,12 +12952,12 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11733,10 +12986,10 @@
         <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -11766,14 +13019,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01DEE13-8567-47C0-98EF-B4590CF5D2FE}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11785,12 +13038,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11799,14 +13052,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -11835,24 +13088,24 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -11888,7 +13141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787D0651-AC56-4C79-A3A0-381B16C48D1E}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C31"/>
@@ -11907,12 +13160,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11921,14 +13174,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -11957,79 +13210,79 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="C12" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:1">
